--- a/Document/SMS_SystemOverview.xlsx
+++ b/Document/SMS_SystemOverview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\GitHub\SMSProject\SMS\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\マイドライブ\Work\90 Dev\SMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96DF6A8-C89F-49D4-B4BF-F087481801AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898237D0-94BE-431B-901E-0431EE8D76B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3344,7 +3345,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>注文書</a:t>
+            <a:t>発注書</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4468,13 +4469,78 @@
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>開発範囲</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>363008</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>467783</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27516</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="フローチャート: 書類 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA37C04-EA65-4714-86F1-2D5A72B1F79A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2712508" y="3239558"/>
+          <a:ext cx="792692" cy="439208"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDocument">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>発注書</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4770,7 +4836,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
